--- a/config_hlw/fish_am_yutu_random_2.xlsx
+++ b/config_hlw/fish_am_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="83">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,10 +244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>35,35,42,43,44,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>|描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -285,22 +281,6 @@
   </si>
   <si>
     <t>鲤鱼王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>121,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37,99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34,97</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -349,6 +329,34 @@
   </si>
   <si>
     <t>end_time|结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,36,109,110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,38,111,112,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39,40,41,113,114,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35,42,43,44,45,46,47,48,48,46,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>121,57,122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>121,57,122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>121,57,122</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1072,13 +1080,13 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.75" style="9" customWidth="1"/>
-    <col min="3" max="3" width="28.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.25" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="93.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.25" customWidth="1"/>
     <col min="8" max="8" width="41.25" style="9" customWidth="1"/>
@@ -1091,7 +1099,7 @@
         <v>40</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>41</v>
@@ -1112,10 +1120,10 @@
         <v>53</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1123,10 +1131,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>68</v>
+        <v>56</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="D2" s="9">
         <v>150</v>
@@ -1135,7 +1143,7 @@
         <v>250</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1143,10 +1151,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>67</v>
+        <v>57</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="D3" s="9">
         <v>200</v>
@@ -1155,7 +1163,7 @@
         <v>300</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1163,10 +1171,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>69</v>
+        <v>57</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="D4">
         <v>250</v>
@@ -1175,7 +1183,7 @@
         <v>350</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1183,10 +1191,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>62</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>63</v>
       </c>
       <c r="D5" s="9">
         <v>300</v>
@@ -1195,7 +1203,7 @@
         <v>450</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1203,10 +1211,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>55</v>
+        <v>58</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="D6">
         <v>400</v>
@@ -1215,7 +1223,7 @@
         <v>600</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1223,10 +1231,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D7" s="9">
         <v>50</v>
@@ -1235,7 +1243,7 @@
         <v>80</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1243,10 +1251,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D8" s="9">
         <v>60</v>
@@ -1255,7 +1263,7 @@
         <v>100</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1263,10 +1271,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D9" s="9">
         <v>800</v>
@@ -1275,7 +1283,7 @@
         <v>1200</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H9" s="9">
         <v>1</v>
@@ -1286,10 +1294,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D10" s="9">
         <v>1800</v>
@@ -1309,10 +1317,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D11" s="9">
         <v>2800</v>
@@ -1321,7 +1329,7 @@
         <v>3200</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H11" s="9">
         <v>1</v>
@@ -1332,10 +1340,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D12" s="9">
         <v>3800</v>
@@ -1355,10 +1363,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D13" s="9">
         <v>4800</v>
@@ -1367,7 +1375,7 @@
         <v>5200</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H13" s="9">
         <v>1</v>
@@ -1840,7 +1848,7 @@
         <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1848,7 +1856,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>49</v>
@@ -1865,7 +1873,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>49</v>
@@ -1882,10 +1890,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>18</v>
@@ -1899,7 +1907,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>49</v>
@@ -1916,10 +1924,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>14</v>

--- a/config_hlw/fish_am_yutu_random_2.xlsx
+++ b/config_hlw/fish_am_yutu_random_2.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="85">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -357,6 +357,14 @@
   </si>
   <si>
     <t>121,57,122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大三元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,13,14,15,16,17,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1080,7 +1088,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1381,9 +1389,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+    <row r="14" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="9">
+        <v>300</v>
+      </c>
+      <c r="E14" s="9">
+        <v>450</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D15" s="9"/>

--- a/config_hlw/fish_am_yutu_random_2.xlsx
+++ b/config_hlw/fish_am_yutu_random_2.xlsx
@@ -1088,7 +1088,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1400,10 +1400,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="9">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E14" s="9">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>67</v>

--- a/config_hlw/fish_am_yutu_random_2.xlsx
+++ b/config_hlw/fish_am_yutu_random_2.xlsx
@@ -1400,10 +1400,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="9">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E14" s="9">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>67</v>

--- a/config_hlw/fish_am_yutu_random_2.xlsx
+++ b/config_hlw/fish_am_yutu_random_2.xlsx
@@ -1088,7 +1088,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1145,10 +1145,10 @@
         <v>76</v>
       </c>
       <c r="D2" s="9">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="E2" s="9">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>67</v>
@@ -1165,10 +1165,10 @@
         <v>77</v>
       </c>
       <c r="D3" s="9">
+        <v>50</v>
+      </c>
+      <c r="E3" s="9">
         <v>200</v>
-      </c>
-      <c r="E3" s="9">
-        <v>300</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>67</v>
@@ -1185,10 +1185,10 @@
         <v>78</v>
       </c>
       <c r="D4">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>67</v>
@@ -1205,10 +1205,10 @@
         <v>62</v>
       </c>
       <c r="D5" s="9">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E5" s="9">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>67</v>
@@ -1225,10 +1225,10 @@
         <v>79</v>
       </c>
       <c r="D6">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E6">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>67</v>
@@ -1400,10 +1400,10 @@
         <v>84</v>
       </c>
       <c r="D14" s="9">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E14" s="9">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>67</v>

--- a/config_hlw/fish_am_yutu_random_2.xlsx
+++ b/config_hlw/fish_am_yutu_random_2.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="80">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,10 +252,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黄金鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>活动鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,14 +261,6 @@
   </si>
   <si>
     <t>大鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一网打尽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18,19,20,21,22,23,24,25,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -332,18 +320,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>34,36,109,110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37,38,111,112,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39,40,41,113,114,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>35,42,43,44,45,46,47,48,48,46,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -360,11 +336,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大三元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,13,14,15,16,17,</t>
+    <t>12,13,14,15,16,17,18,19,20,21,22,23,24,25,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一网打尽和大三元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,36,37,38,39,40,41,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1085,16 +1065,16 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.75" style="9" customWidth="1"/>
-    <col min="3" max="3" width="24.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="93.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.25" customWidth="1"/>
     <col min="8" max="8" width="41.25" style="9" customWidth="1"/>
@@ -1128,10 +1108,10 @@
         <v>53</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1142,16 +1122,16 @@
         <v>56</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D2" s="9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E2" s="9">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1159,19 +1139,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>77</v>
       </c>
       <c r="D3" s="9">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="E3" s="9">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1182,16 +1162,16 @@
         <v>57</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4">
-        <v>300</v>
+        <v>73</v>
+      </c>
+      <c r="D4" s="9">
+        <v>400</v>
+      </c>
+      <c r="E4" s="9">
+        <v>600</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1199,39 +1179,39 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D5" s="9">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E5" s="9">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6">
-        <v>300</v>
-      </c>
-      <c r="E6">
-        <v>500</v>
+        <v>59</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="9">
+        <v>60</v>
+      </c>
+      <c r="E6" s="9">
+        <v>100</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1239,19 +1219,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D7" s="9">
-        <v>50</v>
+        <v>800</v>
       </c>
       <c r="E7" s="9">
-        <v>80</v>
+        <v>1200</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+      <c r="H7" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1262,16 +1245,19 @@
         <v>60</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D8" s="9">
-        <v>60</v>
+        <v>1800</v>
       </c>
       <c r="E8" s="9">
-        <v>100</v>
+        <v>2200</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>67</v>
+        <v>54</v>
+      </c>
+      <c r="H8" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1279,19 +1265,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="9">
+        <v>2800</v>
+      </c>
+      <c r="E9" s="9">
+        <v>3200</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="9">
-        <v>800</v>
-      </c>
-      <c r="E9" s="9">
-        <v>1200</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="H9" s="9">
         <v>1</v>
@@ -1302,16 +1288,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D10" s="9">
-        <v>1800</v>
+        <v>3800</v>
       </c>
       <c r="E10" s="9">
-        <v>2200</v>
+        <v>4200</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>54</v>
@@ -1325,109 +1311,43 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="9">
+        <v>4800</v>
+      </c>
+      <c r="E11" s="9">
+        <v>5200</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="9">
-        <v>2800</v>
-      </c>
-      <c r="E11" s="9">
-        <v>3200</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="H11" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="9">
-        <v>3800</v>
-      </c>
-      <c r="E12" s="9">
-        <v>4200</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="9">
-        <v>4800</v>
-      </c>
-      <c r="E13" s="9">
-        <v>5200</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="9">
-        <v>100</v>
-      </c>
-      <c r="E14" s="9">
-        <v>200</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>67</v>
-      </c>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1872,7 +1792,7 @@
         <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1880,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>49</v>
@@ -1897,7 +1817,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>49</v>
@@ -1914,10 +1834,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>18</v>
@@ -1931,7 +1851,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>49</v>
@@ -1948,10 +1868,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>14</v>

--- a/config_hlw/fish_am_yutu_random_2.xlsx
+++ b/config_hlw/fish_am_yutu_random_2.xlsx
@@ -1068,7 +1068,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1125,10 +1125,10 @@
         <v>79</v>
       </c>
       <c r="D2" s="9">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E2" s="9">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>64</v>

--- a/config_hlw/fish_am_yutu_random_2.xlsx
+++ b/config_hlw/fish_am_yutu_random_2.xlsx
@@ -304,47 +304,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>start_time|开始限制时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_time|结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35,42,43,44,45,46,47,48,48,46,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>121,57,122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>121,57,122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>121,57,122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一网打尽和大三元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,36,37,38,39,40,41,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,13,14,15,16,17,18,19,20,21,22,23,24,25,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,7,8,9,10,11,65,66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>26,27,28,29,30,31,32,33,64,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,7,8,9,10,11,65,66</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start_time|开始限制时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_time|结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35,42,43,44,45,46,47,48,48,46,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>121,57,122</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>121,57,122</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>121,57,122</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,13,14,15,16,17,18,19,20,21,22,23,24,25,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一网打尽和大三元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34,36,37,38,39,40,41,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1068,7 +1068,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1108,10 +1108,10 @@
         <v>53</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -1122,7 +1122,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D2" s="9">
         <v>100</v>
@@ -1139,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>77</v>
@@ -1162,7 +1162,7 @@
         <v>57</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" s="9">
         <v>400</v>
@@ -1182,7 +1182,7 @@
         <v>58</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D5" s="9">
         <v>50</v>
@@ -1202,7 +1202,7 @@
         <v>59</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D6" s="9">
         <v>60</v>
@@ -1222,7 +1222,7 @@
         <v>61</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D7" s="9">
         <v>800</v>
@@ -1268,7 +1268,7 @@
         <v>61</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D9" s="9">
         <v>2800</v>
@@ -1314,7 +1314,7 @@
         <v>61</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D11" s="9">
         <v>4800</v>

--- a/config_hlw/fish_am_yutu_random_2.xlsx
+++ b/config_hlw/fish_am_yutu_random_2.xlsx
@@ -312,39 +312,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>121,57,122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>121,57,122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>121,57,122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一网打尽和大三元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,36,37,38,39,40,41,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,13,14,15,16,17,18,19,20,21,22,23,24,25,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,7,8,9,10,11,65,66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,27,28,29,30,31,32,33,64,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>35,42,43,44,45,46,47,48,48,46,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>121,57,122</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>121,57,122</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>121,57,122</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一网打尽和大三元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34,36,37,38,39,40,41,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,13,14,15,16,17,18,19,20,21,22,23,24,25,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,7,8,9,10,11,65,66</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26,27,28,29,30,31,32,33,64,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1068,7 +1068,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1122,13 +1122,13 @@
         <v>56</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E2" s="9">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>64</v>
@@ -1139,10 +1139,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="9">
         <v>250</v>
@@ -1162,7 +1162,7 @@
         <v>57</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D4" s="9">
         <v>400</v>
@@ -1182,7 +1182,7 @@
         <v>58</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="9">
         <v>50</v>
@@ -1202,7 +1202,7 @@
         <v>59</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" s="9">
         <v>60</v>
@@ -1222,7 +1222,7 @@
         <v>61</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="9">
         <v>800</v>
@@ -1268,7 +1268,7 @@
         <v>61</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" s="9">
         <v>2800</v>
@@ -1314,7 +1314,7 @@
         <v>61</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="9">
         <v>4800</v>

--- a/config_hlw/fish_am_yutu_random_2.xlsx
+++ b/config_hlw/fish_am_yutu_random_2.xlsx
@@ -1068,7 +1068,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1185,10 +1185,10 @@
         <v>77</v>
       </c>
       <c r="D5" s="9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E5" s="9">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>64</v>
@@ -1205,7 +1205,7 @@
         <v>78</v>
       </c>
       <c r="D6" s="9">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E6" s="9">
         <v>100</v>
